--- a/results.xlsx
+++ b/results.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Linkedin-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAC76D3-CB70-457C-AD9D-E5A33CE7602D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5548BA-6D77-40F6-9779-91132FF99506}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="11-05-2020" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="13-05-2020" sheetId="22" r:id="rId1"/>
+    <sheet name="11-05-2020" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'13-05-2020'!$A$1:$D$86</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +84,237 @@
   </si>
   <si>
     <t>17 hours ago</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>David Smith</t>
+  </si>
+  <si>
+    <t>David Slade</t>
+  </si>
+  <si>
+    <t>Ashleigh Truran</t>
+  </si>
+  <si>
+    <t>Khanyisiwe Dikile</t>
+  </si>
+  <si>
+    <t>Duncan MacGregor</t>
+  </si>
+  <si>
+    <t>Wynand Smit</t>
+  </si>
+  <si>
+    <t>Morkel Erasmus</t>
+  </si>
+  <si>
+    <t>Nielsen Mafukidze</t>
+  </si>
+  <si>
+    <t>Russell Varty</t>
+  </si>
+  <si>
+    <t>Benefit Madambi</t>
+  </si>
+  <si>
+    <t>Dore Burger</t>
+  </si>
+  <si>
+    <t>Rhian Capostagno</t>
+  </si>
+  <si>
+    <t>No LinkedIn</t>
+  </si>
+  <si>
+    <t>William Whitelaw</t>
+  </si>
+  <si>
+    <t>Naushaad Mootheram</t>
+  </si>
+  <si>
+    <t>Supriya Soorju</t>
+  </si>
+  <si>
+    <t>Donn Pienaar</t>
+  </si>
+  <si>
+    <t>Damian Lahoud</t>
+  </si>
+  <si>
+    <t>Cornelis Groesbeek</t>
+  </si>
+  <si>
+    <t>Christophe Dominique</t>
+  </si>
+  <si>
+    <t>Christo Greyling</t>
+  </si>
+  <si>
+    <t>2 hours ago</t>
+  </si>
+  <si>
+    <t>Winrie Kruger</t>
+  </si>
+  <si>
+    <t>Dewet van Schoor</t>
+  </si>
+  <si>
+    <t>Marc Kruger</t>
+  </si>
+  <si>
+    <t>Carla Johnson</t>
+  </si>
+  <si>
+    <t>Isabella Claassens</t>
+  </si>
+  <si>
+    <t>Ryan Hudson</t>
+  </si>
+  <si>
+    <t>Anisha Jimmy</t>
+  </si>
+  <si>
+    <t>Andrew Titterton</t>
+  </si>
+  <si>
+    <t>Gareth Huckle</t>
+  </si>
+  <si>
+    <t>Allen Makamure</t>
+  </si>
+  <si>
+    <t>Tom Algie</t>
+  </si>
+  <si>
+    <t>Donald Gardner</t>
+  </si>
+  <si>
+    <t>Oliver Keys</t>
+  </si>
+  <si>
+    <t>Lilian Moiane</t>
+  </si>
+  <si>
+    <t>Wilhelm Schultz</t>
+  </si>
+  <si>
+    <t>1 hour ago</t>
+  </si>
+  <si>
+    <t>Keethan Kander</t>
+  </si>
+  <si>
+    <t>Ziningi Khorombi</t>
+  </si>
+  <si>
+    <t>Tavia Bartlett</t>
+  </si>
+  <si>
+    <t>Helen Hill</t>
+  </si>
+  <si>
+    <t>Christine Janse van Rensburg</t>
+  </si>
+  <si>
+    <t>Geoffrey Kilpin</t>
+  </si>
+  <si>
+    <t>Palesa Seheri</t>
+  </si>
+  <si>
+    <t>Alastair Muller</t>
+  </si>
+  <si>
+    <t>Dawn Mapham</t>
+  </si>
+  <si>
+    <t>Mark Evans</t>
+  </si>
+  <si>
+    <t>Tshepo Moloto</t>
+  </si>
+  <si>
+    <t>Riaan Hugo</t>
+  </si>
+  <si>
+    <t>Carmen Prozesky</t>
+  </si>
+  <si>
+    <t>Akilan Naidoo</t>
+  </si>
+  <si>
+    <t>Katherine Murray</t>
+  </si>
+  <si>
+    <t>Gideon Jacobs</t>
+  </si>
+  <si>
+    <t>Matthew Heyns</t>
+  </si>
+  <si>
+    <t>Nicolene Addinall</t>
+  </si>
+  <si>
+    <t>5 days ago</t>
+  </si>
+  <si>
+    <t>Lawrence Nyengerai</t>
+  </si>
+  <si>
+    <t>Navalin Govender</t>
+  </si>
+  <si>
+    <t>Alastair Ramlakan</t>
+  </si>
+  <si>
+    <t>Christian Engelbrecht</t>
+  </si>
+  <si>
+    <t>Matti Karinen</t>
+  </si>
+  <si>
+    <t>Kgomotso Mokone</t>
+  </si>
+  <si>
+    <t>Cameron Collum</t>
+  </si>
+  <si>
+    <t>Andrew Hickson</t>
+  </si>
+  <si>
+    <t>Rory Atteridge</t>
+  </si>
+  <si>
+    <t>Hylton Crous</t>
+  </si>
+  <si>
+    <t>Cassandra Wright</t>
+  </si>
+  <si>
+    <t>Rebecca Badrodin</t>
+  </si>
+  <si>
+    <t>Zaahir Mukadam</t>
+  </si>
+  <si>
+    <t>Gareth Elfick</t>
+  </si>
+  <si>
+    <t>Nathan Rafferty</t>
+  </si>
+  <si>
+    <t>Allison Chothia</t>
+  </si>
+  <si>
+    <t>David Tannahill</t>
+  </si>
+  <si>
+    <t>6 hours ago</t>
+  </si>
+  <si>
+    <t>Johan Diamond</t>
   </si>
 </sst>
 </file>
@@ -430,19 +665,1249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A668B0CC-C904-428D-9C54-4C88721967A7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D86" xr:uid="{4EA3065F-903A-49A5-8B2A-8CFC25B644E5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Like"/>
+        <filter val="Shared"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4CF9B9-89E0-47E9-BB7F-77FC8BA91ABC}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -472,22 +1937,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B10009-66BF-48C9-B7C5-910F923F490E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -512,7 +1977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -526,7 +1991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -540,7 +2005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -554,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -568,7 +2033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -582,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -596,7 +2061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -610,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -624,7 +2089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -638,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Linkedin-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5548BA-6D77-40F6-9779-91132FF99506}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3A1124-62C1-4A02-AC18-9DC484390BDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
   </bookViews>
   <sheets>
     <sheet name="13-05-2020" sheetId="22" r:id="rId1"/>
     <sheet name="11-05-2020" sheetId="10" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId3"/>
+    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId4"/>
+    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId5"/>
+    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId6"/>
+    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId7"/>
+    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId8"/>
+    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId9"/>
+    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId10"/>
+    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId11"/>
+    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId12"/>
+    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId13"/>
+    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId14"/>
+    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId15"/>
+    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId16"/>
+    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId17"/>
+    <sheet name="15-05-2020" sheetId="24" r:id="rId18"/>
+    <sheet name="14-05-2020" sheetId="23" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'13-05-2020'!$A$1:$D$86</definedName>
@@ -36,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -315,6 +332,15 @@
   </si>
   <si>
     <t>Johan Diamond</t>
+  </si>
+  <si>
+    <t>Partners in Performance</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>PIP</t>
   </si>
 </sst>
 </file>
@@ -1894,6 +1920,569 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340F1A6-A23A-4CD8-B3A7-84E8F81279DB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA9C5B4-7DA3-4531-B36F-7E7596A95C6D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A6BB9-FE03-498F-B245-1623AB5325D4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74325966-2DDB-4E54-834B-8DE13F70523C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2B50-0111-402E-9C3A-7AF00605F8D9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27099F39-BB45-4EAD-B938-41281CF750F4}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E3B91-1434-4DA9-AC65-97E7049A16CA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52263873-94CB-489F-A360-394B6E401620}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37552AF-6005-476F-833F-F086F86F5AE4}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC6AF-6BDB-4D38-BDB7-E4F1870B30C7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4CF9B9-89E0-47E9-BB7F-77FC8BA91ABC}">
   <dimension ref="A1:D2"/>
@@ -1937,11 +2526,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B10009-66BF-48C9-B7C5-910F923F490E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2120,4 +2709,364 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD1F12-A44D-4D23-BBD8-95819F255FB9}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEF7963-46C9-4E6C-927E-FE575FCC39BE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A83EA-4339-4CC4-B64B-C7C7CCB3D7F7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E955E1F-D946-445B-8B8B-C005015AF8BB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6E6EC-F0D1-44D4-BCBB-02A11FA9DE1A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B450B346-6E43-49B8-8200-383BB7307D7E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD0F32-1DF7-4C29-B8F4-7FAA21F2D89C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,31 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Linkedin-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3A1124-62C1-4A02-AC18-9DC484390BDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3DD0A-8752-4A6E-8F36-C310FA419578}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
   </bookViews>
   <sheets>
     <sheet name="13-05-2020" sheetId="22" r:id="rId1"/>
     <sheet name="11-05-2020" sheetId="10" r:id="rId2"/>
-    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId3"/>
-    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId4"/>
-    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId5"/>
-    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId6"/>
-    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId7"/>
-    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId8"/>
-    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId9"/>
-    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId10"/>
-    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId11"/>
-    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId12"/>
-    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId13"/>
-    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId14"/>
-    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId15"/>
-    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId16"/>
-    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId17"/>
-    <sheet name="15-05-2020" sheetId="24" r:id="rId18"/>
-    <sheet name="14-05-2020" sheetId="23" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId20"/>
+    <sheet name="18-05-2020 11-10" sheetId="41" r:id="rId3"/>
+    <sheet name="18-05-2020" sheetId="40" r:id="rId4"/>
+    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId5"/>
+    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId6"/>
+    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId7"/>
+    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId8"/>
+    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId9"/>
+    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId10"/>
+    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId11"/>
+    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId12"/>
+    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId13"/>
+    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId14"/>
+    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId15"/>
+    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId16"/>
+    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId17"/>
+    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId18"/>
+    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId19"/>
+    <sheet name="15-05-2020" sheetId="24" r:id="rId20"/>
+    <sheet name="14-05-2020" sheetId="23" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'13-05-2020'!$A$1:$D$86</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -341,6 +343,12 @@
   </si>
   <si>
     <t>PIP</t>
+  </si>
+  <si>
+    <t>3 days ago</t>
+  </si>
+  <si>
+    <t>4 days ago</t>
   </si>
 </sst>
 </file>
@@ -1921,6 +1929,92 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B450B346-6E43-49B8-8200-383BB7307D7E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD0F32-1DF7-4C29-B8F4-7FAA21F2D89C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340F1A6-A23A-4CD8-B3A7-84E8F81279DB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1963,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA9C5B4-7DA3-4531-B36F-7E7596A95C6D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2006,7 +2100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A6BB9-FE03-498F-B245-1623AB5325D4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2078,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74325966-2DDB-4E54-834B-8DE13F70523C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2150,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2B50-0111-402E-9C3A-7AF00605F8D9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2222,7 +2316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27099F39-BB45-4EAD-B938-41281CF750F4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2279,7 +2373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E3B91-1434-4DA9-AC65-97E7049A16CA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2351,7 +2445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52263873-94CB-489F-A360-394B6E401620}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2382,94 +2476,6 @@
       </c>
       <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37552AF-6005-476F-833F-F086F86F5AE4}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC6AF-6BDB-4D38-BDB7-E4F1870B30C7}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -2527,6 +2533,94 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37552AF-6005-476F-833F-F086F86F5AE4}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC6AF-6BDB-4D38-BDB7-E4F1870B30C7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B10009-66BF-48C9-B7C5-910F923F490E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2712,10 +2806,208 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD1F12-A44D-4D23-BBD8-95819F255FB9}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555ED2B9-8A9A-47FF-89BE-10A89E31B390}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C85E93-EDEA-4B00-8189-F3B3AAB663A7}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2747,7 +3039,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2758,10 +3050,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2775,21 +3067,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2797,7 +3075,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD1F12-A44D-4D23-BBD8-95819F255FB9}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEF7963-46C9-4E6C-927E-FE575FCC39BE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2855,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A83EA-4339-4CC4-B64B-C7C7CCB3D7F7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2899,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E955E1F-D946-445B-8B8B-C005015AF8BB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2942,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6E6EC-F0D1-44D4-BCBB-02A11FA9DE1A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2983,90 +3347,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B450B346-6E43-49B8-8200-383BB7307D7E}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD0F32-1DF7-4C29-B8F4-7FAA21F2D89C}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,33 +8,60 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Linkedin-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3DD0A-8752-4A6E-8F36-C310FA419578}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314B4A1B-F193-4865-8C13-B47543F46768}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
   </bookViews>
   <sheets>
     <sheet name="13-05-2020" sheetId="22" r:id="rId1"/>
     <sheet name="11-05-2020" sheetId="10" r:id="rId2"/>
-    <sheet name="18-05-2020 11-10" sheetId="41" r:id="rId3"/>
-    <sheet name="18-05-2020" sheetId="40" r:id="rId4"/>
-    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId5"/>
-    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId6"/>
-    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId7"/>
-    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId8"/>
-    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId9"/>
-    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId10"/>
-    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId11"/>
-    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId12"/>
-    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId13"/>
-    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId14"/>
-    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId15"/>
-    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId16"/>
-    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId17"/>
-    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId18"/>
-    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId19"/>
-    <sheet name="15-05-2020" sheetId="24" r:id="rId20"/>
-    <sheet name="14-05-2020" sheetId="23" r:id="rId21"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId22"/>
+    <sheet name="18-05-2020 12-19" sheetId="42" r:id="rId3"/>
+    <sheet name="18-05-2020 15-44" sheetId="68" r:id="rId4"/>
+    <sheet name="18-05-2020 15-01" sheetId="67" r:id="rId5"/>
+    <sheet name="18-05-2020 15-00" sheetId="66" r:id="rId6"/>
+    <sheet name="18-05-2020 14-59" sheetId="65" r:id="rId7"/>
+    <sheet name="18-05-2020 14-57" sheetId="64" r:id="rId8"/>
+    <sheet name="18-05-2020 14-51" sheetId="63" r:id="rId9"/>
+    <sheet name="18-05-2020 14-48" sheetId="62" r:id="rId10"/>
+    <sheet name="18-05-2020 14-42" sheetId="61" r:id="rId11"/>
+    <sheet name="18-05-2020 14-30" sheetId="60" r:id="rId12"/>
+    <sheet name="18-05-2020 14-17" sheetId="59" r:id="rId13"/>
+    <sheet name="18-05-2020 13-12" sheetId="58" r:id="rId14"/>
+    <sheet name="18-05-2020 13-10" sheetId="57" r:id="rId15"/>
+    <sheet name="18-05-2020 13-04" sheetId="56" r:id="rId16"/>
+    <sheet name="18-05-2020 13-01" sheetId="55" r:id="rId17"/>
+    <sheet name="18-05-2020 13-00" sheetId="54" r:id="rId18"/>
+    <sheet name="18-05-2020 12-50" sheetId="53" r:id="rId19"/>
+    <sheet name="18-05-2020 12-49" sheetId="52" r:id="rId20"/>
+    <sheet name="18-05-2020 12-45" sheetId="51" r:id="rId21"/>
+    <sheet name="18-05-2020 12-44" sheetId="50" r:id="rId22"/>
+    <sheet name="18-05-2020 12-42" sheetId="49" r:id="rId23"/>
+    <sheet name="18-05-2020 12-39" sheetId="48" r:id="rId24"/>
+    <sheet name="18-05-2020 12-38" sheetId="47" r:id="rId25"/>
+    <sheet name="18-05-2020 12-37" sheetId="46" r:id="rId26"/>
+    <sheet name="18-05-2020 12-36" sheetId="45" r:id="rId27"/>
+    <sheet name="18-05-2020 12-34" sheetId="44" r:id="rId28"/>
+    <sheet name="18-05-2020 12-22" sheetId="43" r:id="rId29"/>
+    <sheet name="18-05-2020 11-10" sheetId="41" r:id="rId30"/>
+    <sheet name="18-05-2020" sheetId="40" r:id="rId31"/>
+    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId32"/>
+    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId33"/>
+    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId34"/>
+    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId35"/>
+    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId36"/>
+    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId37"/>
+    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId38"/>
+    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId39"/>
+    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId40"/>
+    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId41"/>
+    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId42"/>
+    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId43"/>
+    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId44"/>
+    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId45"/>
+    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId46"/>
+    <sheet name="15-05-2020" sheetId="24" r:id="rId47"/>
+    <sheet name="14-05-2020" sheetId="23" r:id="rId48"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId49"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'13-05-2020'!$A$1:$D$86</definedName>
@@ -55,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -349,6 +376,27 @@
   </si>
   <si>
     <t>4 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 hours ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 hours ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 hours ago</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B450B346-6E43-49B8-8200-383BB7307D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F74F2A-7E34-4B7D-B46D-2A52F73D0CBA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1937,8 +1985,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1957,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +2021,279 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD0F32-1DF7-4C29-B8F4-7FAA21F2D89C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2624FB-14A5-48E0-91F0-DFD0231B9DC2}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D05CDEE-EBF7-4E71-849D-246D86BA0334}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216989AA-EBAD-4B4B-96D8-4912A345367A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67940DE-D60B-4C86-BFB7-D8DEB7891CD9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1980,8 +2301,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2014,8 +2336,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340F1A6-A23A-4CD8-B3A7-84E8F81279DB}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D4420B-FEC2-4613-9817-1B6DD0D9EF18}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2023,8 +2345,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2057,8 +2380,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA9C5B4-7DA3-4531-B36F-7E7596A95C6D}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CDCAF6-1275-45E9-B017-15EF704040C8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2066,8 +2389,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2086,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2100,8 +2424,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A6BB9-FE03-498F-B245-1623AB5325D4}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2A868F-62C0-42F7-A076-08F44F44968A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2109,9 +2433,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,13 +2468,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2172,8 +2496,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74325966-2DDB-4E54-834B-8DE13F70523C}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B92CB-059F-4D4C-B863-91068AC97CC5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A99FB47-5D69-49DD-B342-EEA4836B1D1D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2181,9 +2549,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2202,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2216,13 +2584,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2230,258 +2598,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2B50-0111-402E-9C3A-7AF00605F8D9}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27099F39-BB45-4EAD-B938-41281CF750F4}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E3B91-1434-4DA9-AC65-97E7049A16CA}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52263873-94CB-489F-A360-394B6E401620}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2533,6 +2656,2318 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360F3F6-AFA5-485D-A84B-AEFFF2E97985}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C6C39C-7B48-43DC-B29F-498738CEBC74}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8A654A-88DD-4816-93D6-23D91192C3E9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF12E79-A5B1-4D57-821A-66C2DCFD92F7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75514F-9E62-460A-B5E9-C6007B05A928}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA1CEF8-9C70-4B56-A4E0-050FAF774B80}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3EF21E-70FE-4F85-AA9D-852BD698DE6A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEB8E95-DEF2-4721-BC8F-81EF30216607}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76537FF9-88A0-4213-B8B4-0971E466D5F2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807FB3D-CFD1-4B7A-BBBE-AD93F22A5F8F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B5FA4-1589-4B39-8CAB-2597FE20709A}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555ED2B9-8A9A-47FF-89BE-10A89E31B390}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C85E93-EDEA-4B00-8189-F3B3AAB663A7}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD1F12-A44D-4D23-BBD8-95819F255FB9}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEF7963-46C9-4E6C-927E-FE575FCC39BE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A83EA-4339-4CC4-B64B-C7C7CCB3D7F7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E955E1F-D946-445B-8B8B-C005015AF8BB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6E6EC-F0D1-44D4-BCBB-02A11FA9DE1A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B450B346-6E43-49B8-8200-383BB7307D7E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD0F32-1DF7-4C29-B8F4-7FAA21F2D89C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340F1A6-A23A-4CD8-B3A7-84E8F81279DB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F518A8AF-9272-4D04-B2F9-36AB38600EB9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA9C5B4-7DA3-4531-B36F-7E7596A95C6D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A6BB9-FE03-498F-B245-1623AB5325D4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74325966-2DDB-4E54-834B-8DE13F70523C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2B50-0111-402E-9C3A-7AF00605F8D9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27099F39-BB45-4EAD-B938-41281CF750F4}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E3B91-1434-4DA9-AC65-97E7049A16CA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52263873-94CB-489F-A360-394B6E401620}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37552AF-6005-476F-833F-F086F86F5AE4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2576,7 +5011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC6AF-6BDB-4D38-BDB7-E4F1870B30C7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2620,7 +5055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B10009-66BF-48C9-B7C5-910F923F490E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2805,206 +5240,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555ED2B9-8A9A-47FF-89BE-10A89E31B390}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C85E93-EDEA-4B00-8189-F3B3AAB663A7}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B723D4-0082-410F-80B6-D2E46434CB22}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3012,9 +5249,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3033,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3047,13 +5284,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3061,13 +5298,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3075,18 +5312,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD1F12-A44D-4D23-BBD8-95819F255FB9}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823273A-F43F-4311-B5F9-A0E2E658F4F5}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3105,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3119,13 +5356,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,27 +5370,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3161,18 +5384,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEF7963-46C9-4E6C-927E-FE575FCC39BE}">
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2533AAAF-1D62-41C4-BA98-1B3BB37171FB}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,13 +5414,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3205,13 +5428,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3219,8 +5456,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A83EA-4339-4CC4-B64B-C7C7CCB3D7F7}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA465320-8073-4717-9552-5DE2D2A66EDA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3228,9 +5465,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3249,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3263,17 +5500,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E955E1F-D946-445B-8B8B-C005015AF8BB}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8A6FF-453F-453A-AFFE-2B1FBD9E8AE0}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3292,56 +5530,41 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6E6EC-F0D1-44D4-BCBB-02A11FA9DE1A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,60 +8,64 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Linkedin-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314B4A1B-F193-4865-8C13-B47543F46768}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4BB519-BA6B-4DE8-9E47-013A001C76B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
   </bookViews>
   <sheets>
     <sheet name="13-05-2020" sheetId="22" r:id="rId1"/>
     <sheet name="11-05-2020" sheetId="10" r:id="rId2"/>
     <sheet name="18-05-2020 12-19" sheetId="42" r:id="rId3"/>
-    <sheet name="18-05-2020 15-44" sheetId="68" r:id="rId4"/>
-    <sheet name="18-05-2020 15-01" sheetId="67" r:id="rId5"/>
-    <sheet name="18-05-2020 15-00" sheetId="66" r:id="rId6"/>
-    <sheet name="18-05-2020 14-59" sheetId="65" r:id="rId7"/>
-    <sheet name="18-05-2020 14-57" sheetId="64" r:id="rId8"/>
-    <sheet name="18-05-2020 14-51" sheetId="63" r:id="rId9"/>
-    <sheet name="18-05-2020 14-48" sheetId="62" r:id="rId10"/>
-    <sheet name="18-05-2020 14-42" sheetId="61" r:id="rId11"/>
-    <sheet name="18-05-2020 14-30" sheetId="60" r:id="rId12"/>
-    <sheet name="18-05-2020 14-17" sheetId="59" r:id="rId13"/>
-    <sheet name="18-05-2020 13-12" sheetId="58" r:id="rId14"/>
-    <sheet name="18-05-2020 13-10" sheetId="57" r:id="rId15"/>
-    <sheet name="18-05-2020 13-04" sheetId="56" r:id="rId16"/>
-    <sheet name="18-05-2020 13-01" sheetId="55" r:id="rId17"/>
-    <sheet name="18-05-2020 13-00" sheetId="54" r:id="rId18"/>
-    <sheet name="18-05-2020 12-50" sheetId="53" r:id="rId19"/>
-    <sheet name="18-05-2020 12-49" sheetId="52" r:id="rId20"/>
-    <sheet name="18-05-2020 12-45" sheetId="51" r:id="rId21"/>
-    <sheet name="18-05-2020 12-44" sheetId="50" r:id="rId22"/>
-    <sheet name="18-05-2020 12-42" sheetId="49" r:id="rId23"/>
-    <sheet name="18-05-2020 12-39" sheetId="48" r:id="rId24"/>
-    <sheet name="18-05-2020 12-38" sheetId="47" r:id="rId25"/>
-    <sheet name="18-05-2020 12-37" sheetId="46" r:id="rId26"/>
-    <sheet name="18-05-2020 12-36" sheetId="45" r:id="rId27"/>
-    <sheet name="18-05-2020 12-34" sheetId="44" r:id="rId28"/>
-    <sheet name="18-05-2020 12-22" sheetId="43" r:id="rId29"/>
-    <sheet name="18-05-2020 11-10" sheetId="41" r:id="rId30"/>
-    <sheet name="18-05-2020" sheetId="40" r:id="rId31"/>
-    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId32"/>
-    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId33"/>
-    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId34"/>
-    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId35"/>
-    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId36"/>
-    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId37"/>
-    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId38"/>
-    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId39"/>
-    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId40"/>
-    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId41"/>
-    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId42"/>
-    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId43"/>
-    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId44"/>
-    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId45"/>
-    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId46"/>
-    <sheet name="15-05-2020" sheetId="24" r:id="rId47"/>
-    <sheet name="14-05-2020" sheetId="23" r:id="rId48"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId49"/>
+    <sheet name="18-05-2020 16-19" sheetId="72" r:id="rId4"/>
+    <sheet name="18-05-2020 16-14" sheetId="71" r:id="rId5"/>
+    <sheet name="18-05-2020 15-59" sheetId="70" r:id="rId6"/>
+    <sheet name="18-05-2020 15-54" sheetId="69" r:id="rId7"/>
+    <sheet name="18-05-2020 15-44" sheetId="68" r:id="rId8"/>
+    <sheet name="18-05-2020 15-01" sheetId="67" r:id="rId9"/>
+    <sheet name="18-05-2020 15-00" sheetId="66" r:id="rId10"/>
+    <sheet name="18-05-2020 14-59" sheetId="65" r:id="rId11"/>
+    <sheet name="18-05-2020 14-57" sheetId="64" r:id="rId12"/>
+    <sheet name="18-05-2020 14-51" sheetId="63" r:id="rId13"/>
+    <sheet name="18-05-2020 14-48" sheetId="62" r:id="rId14"/>
+    <sheet name="18-05-2020 14-42" sheetId="61" r:id="rId15"/>
+    <sheet name="18-05-2020 14-30" sheetId="60" r:id="rId16"/>
+    <sheet name="18-05-2020 14-17" sheetId="59" r:id="rId17"/>
+    <sheet name="18-05-2020 13-12" sheetId="58" r:id="rId18"/>
+    <sheet name="18-05-2020 13-10" sheetId="57" r:id="rId19"/>
+    <sheet name="18-05-2020 13-04" sheetId="56" r:id="rId20"/>
+    <sheet name="18-05-2020 13-01" sheetId="55" r:id="rId21"/>
+    <sheet name="18-05-2020 13-00" sheetId="54" r:id="rId22"/>
+    <sheet name="18-05-2020 12-50" sheetId="53" r:id="rId23"/>
+    <sheet name="18-05-2020 12-49" sheetId="52" r:id="rId24"/>
+    <sheet name="18-05-2020 12-45" sheetId="51" r:id="rId25"/>
+    <sheet name="18-05-2020 12-44" sheetId="50" r:id="rId26"/>
+    <sheet name="18-05-2020 12-42" sheetId="49" r:id="rId27"/>
+    <sheet name="18-05-2020 12-39" sheetId="48" r:id="rId28"/>
+    <sheet name="18-05-2020 12-38" sheetId="47" r:id="rId29"/>
+    <sheet name="18-05-2020 12-37" sheetId="46" r:id="rId30"/>
+    <sheet name="18-05-2020 12-36" sheetId="45" r:id="rId31"/>
+    <sheet name="18-05-2020 12-34" sheetId="44" r:id="rId32"/>
+    <sheet name="18-05-2020 12-22" sheetId="43" r:id="rId33"/>
+    <sheet name="18-05-2020 11-10" sheetId="41" r:id="rId34"/>
+    <sheet name="18-05-2020" sheetId="40" r:id="rId35"/>
+    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId36"/>
+    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId37"/>
+    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId38"/>
+    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId39"/>
+    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId40"/>
+    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId41"/>
+    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId42"/>
+    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId43"/>
+    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId44"/>
+    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId45"/>
+    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId46"/>
+    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId47"/>
+    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId48"/>
+    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId49"/>
+    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId50"/>
+    <sheet name="15-05-2020" sheetId="24" r:id="rId51"/>
+    <sheet name="14-05-2020" sheetId="23" r:id="rId52"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId53"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'13-05-2020'!$A$1:$D$86</definedName>
@@ -82,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -397,6 +401,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 7 hours ago</t>
+  </si>
+  <si>
+    <t>0.3333333333333333 days</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>0.3 days</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>6 days</t>
   </si>
 </sst>
 </file>
@@ -1977,6 +1999,266 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823273A-F43F-4311-B5F9-A0E2E658F4F5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2533AAAF-1D62-41C4-BA98-1B3BB37171FB}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA465320-8073-4717-9552-5DE2D2A66EDA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8A6FF-453F-453A-AFFE-2B1FBD9E8AE0}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F74F2A-7E34-4B7D-B46D-2A52F73D0CBA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2020,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2624FB-14A5-48E0-91F0-DFD0231B9DC2}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2148,7 +2430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D05CDEE-EBF7-4E71-849D-246D86BA0334}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2220,7 +2502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216989AA-EBAD-4B4B-96D8-4912A345367A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2292,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67940DE-D60B-4C86-BFB7-D8DEB7891CD9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2336,7 +2618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D4420B-FEC2-4613-9817-1B6DD0D9EF18}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2373,238 +2655,6 @@
       </c>
       <c r="D2" t="s">
         <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CDCAF6-1275-45E9-B017-15EF704040C8}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2A868F-62C0-42F7-A076-08F44F44968A}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B92CB-059F-4D4C-B863-91068AC97CC5}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A99FB47-5D69-49DD-B342-EEA4836B1D1D}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2656,6 +2706,238 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CDCAF6-1275-45E9-B017-15EF704040C8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2A868F-62C0-42F7-A076-08F44F44968A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B92CB-059F-4D4C-B863-91068AC97CC5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A99FB47-5D69-49DD-B342-EEA4836B1D1D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360F3F6-AFA5-485D-A84B-AEFFF2E97985}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -2895,7 +3177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C6C39C-7B48-43DC-B29F-498738CEBC74}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2938,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8A654A-88DD-4816-93D6-23D91192C3E9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2981,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF12E79-A5B1-4D57-821A-66C2DCFD92F7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3024,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75514F-9E62-460A-B5E9-C6007B05A928}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3067,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA1CEF8-9C70-4B56-A4E0-050FAF774B80}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3103,488 +3385,6 @@
       </c>
       <c r="D2" t="s">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3EF21E-70FE-4F85-AA9D-852BD698DE6A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEB8E95-DEF2-4721-BC8F-81EF30216607}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76537FF9-88A0-4213-B8B4-0971E466D5F2}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807FB3D-CFD1-4B7A-BBBE-AD93F22A5F8F}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3791,6 +3591,488 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3EF21E-70FE-4F85-AA9D-852BD698DE6A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEB8E95-DEF2-4721-BC8F-81EF30216607}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76537FF9-88A0-4213-B8B4-0971E466D5F2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807FB3D-CFD1-4B7A-BBBE-AD93F22A5F8F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555ED2B9-8A9A-47FF-89BE-10A89E31B390}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3988,7 +4270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C85E93-EDEA-4B00-8189-F3B3AAB663A7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4060,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD1F12-A44D-4D23-BBD8-95819F255FB9}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4146,7 +4428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEF7963-46C9-4E6C-927E-FE575FCC39BE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4204,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A83EA-4339-4CC4-B64B-C7C7CCB3D7F7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4248,7 +4530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E955E1F-D946-445B-8B8B-C005015AF8BB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4291,7 +4573,233 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61069E5D-B8A4-4C6D-8A5A-99D92CA8ECE7}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6E6EC-F0D1-44D4-BCBB-02A11FA9DE1A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4334,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B450B346-6E43-49B8-8200-383BB7307D7E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4377,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD0F32-1DF7-4C29-B8F4-7FAA21F2D89C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4420,7 +4928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340F1A6-A23A-4CD8-B3A7-84E8F81279DB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4463,79 +4971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F518A8AF-9272-4D04-B2F9-36AB38600EB9}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA9C5B4-7DA3-4531-B36F-7E7596A95C6D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4578,7 +5014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A6BB9-FE03-498F-B245-1623AB5325D4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4650,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74325966-2DDB-4E54-834B-8DE13F70523C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4722,7 +5158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2B50-0111-402E-9C3A-7AF00605F8D9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4794,7 +5230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27099F39-BB45-4EAD-B938-41281CF750F4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4851,7 +5287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E3B91-1434-4DA9-AC65-97E7049A16CA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4923,7 +5359,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68312D85-2766-4169-8246-F56B69F651D4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52263873-94CB-489F-A360-394B6E401620}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4967,7 +5475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37552AF-6005-476F-833F-F086F86F5AE4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5011,7 +5519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC6AF-6BDB-4D38-BDB7-E4F1870B30C7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5055,7 +5563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B10009-66BF-48C9-B7C5-910F923F490E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5240,7 +5748,223 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE9F0B1-D542-425C-97AE-0BD6DF1ACAC4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66389B17-8327-45DE-AEF5-5FA3D62E22D4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F518A8AF-9272-4D04-B2F9-36AB38600EB9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B723D4-0082-410F-80B6-D2E46434CB22}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5310,264 +6034,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823273A-F43F-4311-B5F9-A0E2E658F4F5}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2533AAAF-1D62-41C4-BA98-1B3BB37171FB}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA465320-8073-4717-9552-5DE2D2A66EDA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8A6FF-453F-453A-AFFE-2B1FBD9E8AE0}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,67 +8,81 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Linkedin-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4BB519-BA6B-4DE8-9E47-013A001C76B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E68E7B-3E59-4C42-95C4-C2C0B17ADA13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EF3BFE77-3C68-43F4-9F27-51D60D1853F2}"/>
   </bookViews>
   <sheets>
     <sheet name="13-05-2020" sheetId="22" r:id="rId1"/>
     <sheet name="11-05-2020" sheetId="10" r:id="rId2"/>
     <sheet name="18-05-2020 12-19" sheetId="42" r:id="rId3"/>
-    <sheet name="18-05-2020 16-19" sheetId="72" r:id="rId4"/>
-    <sheet name="18-05-2020 16-14" sheetId="71" r:id="rId5"/>
-    <sheet name="18-05-2020 15-59" sheetId="70" r:id="rId6"/>
-    <sheet name="18-05-2020 15-54" sheetId="69" r:id="rId7"/>
-    <sheet name="18-05-2020 15-44" sheetId="68" r:id="rId8"/>
-    <sheet name="18-05-2020 15-01" sheetId="67" r:id="rId9"/>
-    <sheet name="18-05-2020 15-00" sheetId="66" r:id="rId10"/>
-    <sheet name="18-05-2020 14-59" sheetId="65" r:id="rId11"/>
-    <sheet name="18-05-2020 14-57" sheetId="64" r:id="rId12"/>
-    <sheet name="18-05-2020 14-51" sheetId="63" r:id="rId13"/>
-    <sheet name="18-05-2020 14-48" sheetId="62" r:id="rId14"/>
-    <sheet name="18-05-2020 14-42" sheetId="61" r:id="rId15"/>
-    <sheet name="18-05-2020 14-30" sheetId="60" r:id="rId16"/>
-    <sheet name="18-05-2020 14-17" sheetId="59" r:id="rId17"/>
-    <sheet name="18-05-2020 13-12" sheetId="58" r:id="rId18"/>
-    <sheet name="18-05-2020 13-10" sheetId="57" r:id="rId19"/>
-    <sheet name="18-05-2020 13-04" sheetId="56" r:id="rId20"/>
-    <sheet name="18-05-2020 13-01" sheetId="55" r:id="rId21"/>
-    <sheet name="18-05-2020 13-00" sheetId="54" r:id="rId22"/>
-    <sheet name="18-05-2020 12-50" sheetId="53" r:id="rId23"/>
-    <sheet name="18-05-2020 12-49" sheetId="52" r:id="rId24"/>
-    <sheet name="18-05-2020 12-45" sheetId="51" r:id="rId25"/>
-    <sheet name="18-05-2020 12-44" sheetId="50" r:id="rId26"/>
-    <sheet name="18-05-2020 12-42" sheetId="49" r:id="rId27"/>
-    <sheet name="18-05-2020 12-39" sheetId="48" r:id="rId28"/>
-    <sheet name="18-05-2020 12-38" sheetId="47" r:id="rId29"/>
-    <sheet name="18-05-2020 12-37" sheetId="46" r:id="rId30"/>
-    <sheet name="18-05-2020 12-36" sheetId="45" r:id="rId31"/>
-    <sheet name="18-05-2020 12-34" sheetId="44" r:id="rId32"/>
-    <sheet name="18-05-2020 12-22" sheetId="43" r:id="rId33"/>
-    <sheet name="18-05-2020 11-10" sheetId="41" r:id="rId34"/>
-    <sheet name="18-05-2020" sheetId="40" r:id="rId35"/>
-    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId36"/>
-    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId37"/>
-    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId38"/>
-    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId39"/>
-    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId40"/>
-    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId41"/>
-    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId42"/>
-    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId43"/>
-    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId44"/>
-    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId45"/>
-    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId46"/>
-    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId47"/>
-    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId48"/>
-    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId49"/>
-    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId50"/>
-    <sheet name="15-05-2020" sheetId="24" r:id="rId51"/>
-    <sheet name="14-05-2020" sheetId="23" r:id="rId52"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId53"/>
+    <sheet name="19-05-2020 09-36" sheetId="85" r:id="rId4"/>
+    <sheet name="19-05-2020 09-31" sheetId="84" r:id="rId5"/>
+    <sheet name="19-05-2020 09-30" sheetId="83" r:id="rId6"/>
+    <sheet name="19-05-2020 09-28" sheetId="82" r:id="rId7"/>
+    <sheet name="19-05-2020 09-27" sheetId="81" r:id="rId8"/>
+    <sheet name="19-05-2020 09-26" sheetId="80" r:id="rId9"/>
+    <sheet name="19-05-2020 09-20" sheetId="79" r:id="rId10"/>
+    <sheet name="19-05-2020 09-16" sheetId="78" r:id="rId11"/>
+    <sheet name="19-05-2020 09-15" sheetId="77" r:id="rId12"/>
+    <sheet name="19-05-2020 09-07" sheetId="76" r:id="rId13"/>
+    <sheet name="19-05-2020 09-04" sheetId="75" r:id="rId14"/>
+    <sheet name="19-05-2020 09-01" sheetId="74" r:id="rId15"/>
+    <sheet name="19-05-2020" sheetId="73" r:id="rId16"/>
+    <sheet name="18-05-2020 16-19" sheetId="72" r:id="rId17"/>
+    <sheet name="18-05-2020 16-14" sheetId="71" r:id="rId18"/>
+    <sheet name="18-05-2020 15-59" sheetId="70" r:id="rId19"/>
+    <sheet name="18-05-2020 15-54" sheetId="69" r:id="rId20"/>
+    <sheet name="18-05-2020 15-44" sheetId="68" r:id="rId21"/>
+    <sheet name="18-05-2020 15-01" sheetId="67" r:id="rId22"/>
+    <sheet name="18-05-2020 15-00" sheetId="66" r:id="rId23"/>
+    <sheet name="18-05-2020 14-59" sheetId="65" r:id="rId24"/>
+    <sheet name="18-05-2020 14-57" sheetId="64" r:id="rId25"/>
+    <sheet name="18-05-2020 14-51" sheetId="63" r:id="rId26"/>
+    <sheet name="18-05-2020 14-48" sheetId="62" r:id="rId27"/>
+    <sheet name="18-05-2020 14-42" sheetId="61" r:id="rId28"/>
+    <sheet name="18-05-2020 14-30" sheetId="60" r:id="rId29"/>
+    <sheet name="18-05-2020 14-17" sheetId="59" r:id="rId30"/>
+    <sheet name="18-05-2020 13-12" sheetId="58" r:id="rId31"/>
+    <sheet name="18-05-2020 13-10" sheetId="57" r:id="rId32"/>
+    <sheet name="18-05-2020 13-04" sheetId="56" r:id="rId33"/>
+    <sheet name="18-05-2020 13-01" sheetId="55" r:id="rId34"/>
+    <sheet name="18-05-2020 13-00" sheetId="54" r:id="rId35"/>
+    <sheet name="18-05-2020 12-50" sheetId="53" r:id="rId36"/>
+    <sheet name="18-05-2020 12-49" sheetId="52" r:id="rId37"/>
+    <sheet name="18-05-2020 12-45" sheetId="51" r:id="rId38"/>
+    <sheet name="18-05-2020 12-44" sheetId="50" r:id="rId39"/>
+    <sheet name="18-05-2020 12-42" sheetId="49" r:id="rId40"/>
+    <sheet name="18-05-2020 12-39" sheetId="48" r:id="rId41"/>
+    <sheet name="18-05-2020 12-38" sheetId="47" r:id="rId42"/>
+    <sheet name="18-05-2020 12-37" sheetId="46" r:id="rId43"/>
+    <sheet name="18-05-2020 12-36" sheetId="45" r:id="rId44"/>
+    <sheet name="18-05-2020 12-34" sheetId="44" r:id="rId45"/>
+    <sheet name="18-05-2020 12-22" sheetId="43" r:id="rId46"/>
+    <sheet name="18-05-2020 11-10" sheetId="41" r:id="rId47"/>
+    <sheet name="18-05-2020" sheetId="40" r:id="rId48"/>
+    <sheet name="15-05-2020 16-03" sheetId="39" r:id="rId49"/>
+    <sheet name="15-05-2020 16-02" sheetId="38" r:id="rId50"/>
+    <sheet name="15-05-2020 15-51" sheetId="37" r:id="rId51"/>
+    <sheet name="15-05-2020 15-50" sheetId="36" r:id="rId52"/>
+    <sheet name="15-05-2020 15-47" sheetId="35" r:id="rId53"/>
+    <sheet name="15-05-2020 15-46" sheetId="34" r:id="rId54"/>
+    <sheet name="15-05-2020 15-44" sheetId="33" r:id="rId55"/>
+    <sheet name="15-05-2020 15-43" sheetId="32" r:id="rId56"/>
+    <sheet name="15-05-2020 15-36" sheetId="31" r:id="rId57"/>
+    <sheet name="15-05-2020 15-35" sheetId="30" r:id="rId58"/>
+    <sheet name="15-05-2020 15-09" sheetId="29" r:id="rId59"/>
+    <sheet name="15-05-2020 15-00" sheetId="28" r:id="rId60"/>
+    <sheet name="15-05-2020 14-59" sheetId="27" r:id="rId61"/>
+    <sheet name="15-05-2020 14-35" sheetId="26" r:id="rId62"/>
+    <sheet name="15-05-2020 14-15" sheetId="25" r:id="rId63"/>
+    <sheet name="15-05-2020" sheetId="24" r:id="rId64"/>
+    <sheet name="14-05-2020" sheetId="23" r:id="rId65"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId66"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'13-05-2020'!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'19-05-2020'!$B$1:$D$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -419,6 +433,15 @@
   </si>
   <si>
     <t>6 days</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1 days</t>
+  </si>
+  <si>
+    <t>0.9 days</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2022,2827 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823273A-F43F-4311-B5F9-A0E2E658F4F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951CCAB5-7709-45B3-B657-C58446A80F9B}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337A4E08-BB0A-4109-A4F8-426BA49E498F}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6454C7E5-6F90-45D6-8306-1051060EFB4B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A07F613-B86B-4CA4-8776-23083C447BEB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F1E73D-03BA-437B-93EF-F1A2863CB498}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A638133E-3CE0-478D-AACB-9BE6B5C787A4}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE57E17-6252-4574-ABEF-D3ED227795E0}">
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:D144" xr:uid="{76B0C58D-3C29-4947-8DCE-FC49171B8A24}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61069E5D-B8A4-4C6D-8A5A-99D92CA8ECE7}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68312D85-2766-4169-8246-F56B69F651D4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE9F0B1-D542-425C-97AE-0BD6DF1ACAC4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2034,7 +4877,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,598 +4906,6 @@
       </c>
       <c r="D4" t="s">
         <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2533AAAF-1D62-41C4-BA98-1B3BB37171FB}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA465320-8073-4717-9552-5DE2D2A66EDA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8A6FF-453F-453A-AFFE-2B1FBD9E8AE0}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F74F2A-7E34-4B7D-B46D-2A52F73D0CBA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2624FB-14A5-48E0-91F0-DFD0231B9DC2}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D05CDEE-EBF7-4E71-849D-246D86BA0334}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216989AA-EBAD-4B4B-96D8-4912A345367A}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67940DE-D60B-4C86-BFB7-D8DEB7891CD9}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D4420B-FEC2-4613-9817-1B6DD0D9EF18}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +4957,367 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CDCAF6-1275-45E9-B017-15EF704040C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66389B17-8327-45DE-AEF5-5FA3D62E22D4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F518A8AF-9272-4D04-B2F9-36AB38600EB9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B723D4-0082-410F-80B6-D2E46434CB22}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823273A-F43F-4311-B5F9-A0E2E658F4F5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2533AAAF-1D62-41C4-BA98-1B3BB37171FB}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA465320-8073-4717-9552-5DE2D2A66EDA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2749,8 +5360,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2A868F-62C0-42F7-A076-08F44F44968A}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8A6FF-453F-453A-AFFE-2B1FBD9E8AE0}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2782,10 +5393,10 @@
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2796,10 +5407,10 @@
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2821,8 +5432,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B92CB-059F-4D4C-B863-91068AC97CC5}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F74F2A-7E34-4B7D-B46D-2A52F73D0CBA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2865,8 +5476,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A99FB47-5D69-49DD-B342-EEA4836B1D1D}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2624FB-14A5-48E0-91F0-DFD0231B9DC2}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D05CDEE-EBF7-4E71-849D-246D86BA0334}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2915,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2930,461 +5669,6 @@
       </c>
       <c r="D4" t="s">
         <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360F3F6-AFA5-485D-A84B-AEFFF2E97985}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C6C39C-7B48-43DC-B29F-498738CEBC74}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8A654A-88DD-4816-93D6-23D91192C3E9}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF12E79-A5B1-4D57-821A-66C2DCFD92F7}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75514F-9E62-460A-B5E9-C6007B05A928}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA1CEF8-9C70-4B56-A4E0-050FAF774B80}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3591,6 +5875,896 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216989AA-EBAD-4B4B-96D8-4912A345367A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67940DE-D60B-4C86-BFB7-D8DEB7891CD9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D4420B-FEC2-4613-9817-1B6DD0D9EF18}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CDCAF6-1275-45E9-B017-15EF704040C8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2A868F-62C0-42F7-A076-08F44F44968A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B92CB-059F-4D4C-B863-91068AC97CC5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A99FB47-5D69-49DD-B342-EEA4836B1D1D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360F3F6-AFA5-485D-A84B-AEFFF2E97985}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C6C39C-7B48-43DC-B29F-498738CEBC74}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8A654A-88DD-4816-93D6-23D91192C3E9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110D4762-1A15-4869-9456-AE41B2C5D457}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF12E79-A5B1-4D57-821A-66C2DCFD92F7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75514F-9E62-460A-B5E9-C6007B05A928}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA1CEF8-9C70-4B56-A4E0-050FAF774B80}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3EF21E-70FE-4F85-AA9D-852BD698DE6A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3633,7 +6807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEB8E95-DEF2-4721-BC8F-81EF30216607}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3831,7 +7005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76537FF9-88A0-4213-B8B4-0971E466D5F2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3874,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807FB3D-CFD1-4B7A-BBBE-AD93F22A5F8F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4072,7 +7246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555ED2B9-8A9A-47FF-89BE-10A89E31B390}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4270,7 +7444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C85E93-EDEA-4B00-8189-F3B3AAB663A7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4342,7 +7516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD1F12-A44D-4D23-BBD8-95819F255FB9}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4428,7 +7602,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F7153B-809B-49F9-AF46-EDD2FFFB49AA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEF7963-46C9-4E6C-927E-FE575FCC39BE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4486,7 +7704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A83EA-4339-4CC4-B64B-C7C7CCB3D7F7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4530,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E955E1F-D946-445B-8B8B-C005015AF8BB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4573,233 +7791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61069E5D-B8A4-4C6D-8A5A-99D92CA8ECE7}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6E6EC-F0D1-44D4-BCBB-02A11FA9DE1A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4842,7 +7834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B450B346-6E43-49B8-8200-383BB7307D7E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4885,7 +7877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD0F32-1DF7-4C29-B8F4-7FAA21F2D89C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4928,7 +7920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340F1A6-A23A-4CD8-B3A7-84E8F81279DB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4971,7 +7963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA9C5B4-7DA3-4531-B36F-7E7596A95C6D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5014,7 +8006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A6BB9-FE03-498F-B245-1623AB5325D4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5086,7 +8078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74325966-2DDB-4E54-834B-8DE13F70523C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5158,7 +8150,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA3C122-5B2C-428D-A1C3-69079B642430}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2B50-0111-402E-9C3A-7AF00605F8D9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5230,7 +8308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27099F39-BB45-4EAD-B938-41281CF750F4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5287,7 +8365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E3B91-1434-4DA9-AC65-97E7049A16CA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5359,79 +8437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68312D85-2766-4169-8246-F56B69F651D4}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52263873-94CB-489F-A360-394B6E401620}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5475,7 +8481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37552AF-6005-476F-833F-F086F86F5AE4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5519,7 +8525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC6AF-6BDB-4D38-BDB7-E4F1870B30C7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5563,7 +8569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B10009-66BF-48C9-B7C5-910F923F490E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5748,8 +8754,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE9F0B1-D542-425C-97AE-0BD6DF1ACAC4}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0702D65-8DD9-4DBF-9D3C-3B2AF05E26F0}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5757,9 +8763,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5778,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,13 +8798,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5806,13 +8812,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5820,8 +8826,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66389B17-8327-45DE-AEF5-5FA3D62E22D4}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E4646-D156-4232-8539-3F47C887774B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5829,9 +8835,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5850,13 +8856,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5864,13 +8870,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5878,13 +8884,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5892,8 +8898,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F518A8AF-9272-4D04-B2F9-36AB38600EB9}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B821882-A922-4C75-A064-7DF925E0AD80}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5901,9 +8907,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5922,13 +8928,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,13 +8942,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5950,85 +8956,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B723D4-0082-410F-80B6-D2E46434CB22}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
